--- a/neural_network/analysis/neural_network_analysis.xlsx
+++ b/neural_network/analysis/neural_network_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbenton2\Desktop\God Folder\publications\soc_learning\soc_non_category\soc_analysis\neural_network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbenton2\Desktop\God Folder\publications\soc_learning\soc_non_category\soc_analysis\neural_network\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97DFC9-E6AC-418F-96DB-B55E86B8ADEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6172445-5075-454B-828E-3DB2923A8C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D2642917-A99B-4374-93A7-392996CE22E4}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>age</t>
+    <t>mem_status</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
